--- a/notebooks/Data/Star_Wars_Episode_VIII_The_Last_Jedi/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_VIII_The_Last_Jedi/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,9 +28,15 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>out_degree</t>
+  </si>
+  <si>
     <t>Ansiv Garmuth</t>
   </si>
   <si>
@@ -61,448 +67,448 @@
     <t>Ro</t>
   </si>
   <si>
+    <t>Snoke</t>
+  </si>
+  <si>
+    <t>Y5-X2</t>
+  </si>
+  <si>
+    <t>Suday Bascus</t>
+  </si>
+  <si>
+    <t>Clyss Power</t>
+  </si>
+  <si>
+    <t>Glowen Faquidde</t>
+  </si>
+  <si>
+    <t>Wolfid Dorna</t>
+  </si>
+  <si>
+    <t>2BB-2</t>
+  </si>
+  <si>
+    <t>Stepheden Thaldree</t>
+  </si>
+  <si>
+    <t>Arca Yroca</t>
+  </si>
+  <si>
+    <t>Nix Jerd</t>
+  </si>
+  <si>
+    <t>Phasma</t>
+  </si>
+  <si>
+    <t>Bail Organa</t>
+  </si>
+  <si>
+    <t>Vober Dand</t>
+  </si>
+  <si>
+    <t>Bargwill Tomder</t>
+  </si>
+  <si>
+    <t>Thomkins Watam</t>
+  </si>
+  <si>
+    <t>Paige Tico</t>
+  </si>
+  <si>
+    <t>Kaljach Sonmi</t>
+  </si>
+  <si>
+    <t>Soburi Hannemtin</t>
+  </si>
+  <si>
+    <t>Yasto Attsmun</t>
+  </si>
+  <si>
+    <t>Anglang Lehet</t>
+  </si>
+  <si>
+    <t>Porg Stowaway</t>
+  </si>
+  <si>
+    <t>Auk-Waimanu</t>
+  </si>
+  <si>
+    <t>Lovey</t>
+  </si>
+  <si>
+    <t>Amilyn Holdo</t>
+  </si>
+  <si>
+    <t>Trypto Buball</t>
+  </si>
+  <si>
+    <t>Alissyndrex delga Cantonica Provincion</t>
+  </si>
+  <si>
+    <t>Korfé Bennux-Ai</t>
+  </si>
+  <si>
+    <t>Geno Namit</t>
+  </si>
+  <si>
+    <t>Moden Canady</t>
+  </si>
+  <si>
+    <t>Wayulia Tagge-Simoni</t>
+  </si>
+  <si>
+    <t>Ubialla Gheal</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>R4-X2</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Lexo Sooger</t>
+  </si>
+  <si>
+    <t>Letrun Pay</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>Tritt Opan</t>
+  </si>
+  <si>
+    <t>Armitage Hux</t>
+  </si>
+  <si>
+    <t>Goneril</t>
+  </si>
+  <si>
+    <t>Brun Obatsun</t>
+  </si>
+  <si>
+    <t>Finch Dallow</t>
+  </si>
+  <si>
+    <t>Jober Tavson</t>
+  </si>
+  <si>
+    <t>Sharp (Resistance)</t>
+  </si>
+  <si>
+    <t>Salaka Kuchimba</t>
+  </si>
+  <si>
+    <t>Unidentified Bufopel (Canto Bight)</t>
+  </si>
+  <si>
+    <t>Pamich Nerro Goode</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>Gial Ackbar</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
     <t>C'ai Threnalli</t>
   </si>
   <si>
-    <t>Y5-X2</t>
-  </si>
-  <si>
-    <t>Suday Bascus</t>
-  </si>
-  <si>
-    <t>Clyss Power</t>
-  </si>
-  <si>
-    <t>Glowen Faquidde</t>
-  </si>
-  <si>
-    <t>Wolfid Dorna</t>
+    <t>Corm-Kairuku</t>
+  </si>
+  <si>
+    <t>Dhuz</t>
+  </si>
+  <si>
+    <t>Thamm</t>
+  </si>
+  <si>
+    <t>Unidentified male Resistance soldier (Crait)</t>
+  </si>
+  <si>
+    <t>Cobel Tansirch</t>
+  </si>
+  <si>
+    <t>Terna-Gentu</t>
+  </si>
+  <si>
+    <t>Kaydel Ko Connix</t>
+  </si>
+  <si>
+    <t>Stomeroni Starck</t>
+  </si>
+  <si>
+    <t>Hhex</t>
+  </si>
+  <si>
+    <t>Koo Millham</t>
+  </si>
+  <si>
+    <t>Nien Nunb</t>
+  </si>
+  <si>
+    <t>Centada Ressad</t>
+  </si>
+  <si>
+    <t>Derham Boyce</t>
+  </si>
+  <si>
+    <t>Maz Kanata</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Derla Pidys</t>
+  </si>
+  <si>
+    <t>Rhomby Grammus</t>
+  </si>
+  <si>
+    <t>Shuma Kalamo</t>
+  </si>
+  <si>
+    <t>Riva Rosetta</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>BB-9E</t>
+  </si>
+  <si>
+    <t>Lank Paze</t>
+  </si>
+  <si>
+    <t>Nodin Chavdri</t>
+  </si>
+  <si>
+    <t>Alcida-Auka</t>
+  </si>
+  <si>
+    <t>Loatha Sommover</t>
+  </si>
+  <si>
+    <t>B-U4D</t>
+  </si>
+  <si>
+    <t>Nossit Cicer</t>
+  </si>
+  <si>
+    <t>Neepers Panpick</t>
+  </si>
+  <si>
+    <t>Arashell Sar</t>
+  </si>
+  <si>
+    <t>Grayla Stindy</t>
+  </si>
+  <si>
+    <t>Dynym Quid</t>
+  </si>
+  <si>
+    <t>Unidentified Canto Casino patron</t>
+  </si>
+  <si>
+    <t>Poe Dameron</t>
+  </si>
+  <si>
+    <t>Torreb Savato</t>
+  </si>
+  <si>
+    <t>Larma D'Acy</t>
+  </si>
+  <si>
+    <t>Saile Minnau</t>
+  </si>
+  <si>
+    <t>Guila Angira</t>
+  </si>
+  <si>
+    <t>Caluan Ematt</t>
+  </si>
+  <si>
+    <t>Sommel Atandu</t>
+  </si>
+  <si>
+    <t>Prime Jedi</t>
+  </si>
+  <si>
+    <t>Armitage Hux's mother</t>
+  </si>
+  <si>
+    <t>Unidentified Anodyne pilot</t>
+  </si>
+  <si>
+    <t>Parallela Grammus</t>
+  </si>
+  <si>
+    <t>First Guard</t>
+  </si>
+  <si>
+    <t>Daxo Ecloss</t>
+  </si>
+  <si>
+    <t>Ronith Blario</t>
+  </si>
+  <si>
+    <t>Third Guard</t>
+  </si>
+  <si>
+    <t>Poldin LeHuse</t>
+  </si>
+  <si>
+    <t>Edmo Ectacle</t>
+  </si>
+  <si>
+    <t>Goss Toowers</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Unidentified transport pilot</t>
+  </si>
+  <si>
+    <t>Peera Maso</t>
+  </si>
+  <si>
+    <t>Ubbla Mollbro</t>
+  </si>
+  <si>
+    <t>Sibos Tammis</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Wodibin</t>
+  </si>
+  <si>
+    <t>Bollie Prindel</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Dobbu Scay</t>
+  </si>
+  <si>
+    <t>Sturg Ganna</t>
+  </si>
+  <si>
+    <t>Kedpin Shoklop</t>
+  </si>
+  <si>
+    <t>Dodibin</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Grebe-Korora</t>
+  </si>
+  <si>
+    <t>Teene</t>
+  </si>
+  <si>
+    <t>Unidentified flight engineer</t>
+  </si>
+  <si>
+    <t>Sosear Latta</t>
+  </si>
+  <si>
+    <t>BB-4</t>
+  </si>
+  <si>
+    <t>Cova Nell</t>
+  </si>
+  <si>
+    <t>Snook Uccorfay</t>
+  </si>
+  <si>
+    <t>Vylla Tendeil</t>
+  </si>
+  <si>
+    <t>BB-8</t>
+  </si>
+  <si>
+    <t>Slowen Lo</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Temiri Blagg</t>
+  </si>
+  <si>
+    <t>Hal (Imperial officer)</t>
+  </si>
+  <si>
+    <t>Karlus Stee</t>
+  </si>
+  <si>
+    <t>Rose Tico</t>
   </si>
   <si>
     <t>Luke Skywalker</t>
   </si>
   <si>
-    <t>Stepheden Thaldree</t>
-  </si>
-  <si>
-    <t>Arca Yroca</t>
-  </si>
-  <si>
-    <t>Nix Jerd</t>
-  </si>
-  <si>
-    <t>Phasma</t>
-  </si>
-  <si>
-    <t>Bail Organa</t>
-  </si>
-  <si>
-    <t>Vober Dand</t>
-  </si>
-  <si>
-    <t>Bargwill Tomder</t>
-  </si>
-  <si>
-    <t>Thomkins Watam</t>
-  </si>
-  <si>
-    <t>Paige Tico</t>
-  </si>
-  <si>
-    <t>Kaljach Sonmi</t>
-  </si>
-  <si>
-    <t>Soburi Hannemtin</t>
-  </si>
-  <si>
-    <t>Yasto Attsmun</t>
+    <t>Hesper-Inguza</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Idrosen Gawat</t>
+  </si>
+  <si>
+    <t>Hoth Stuff</t>
+  </si>
+  <si>
+    <t>Kylo Ren</t>
+  </si>
+  <si>
+    <t>Rumitar Shay</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Lusica Stynnix</t>
+  </si>
+  <si>
+    <t>Master Codebreaker</t>
+  </si>
+  <si>
+    <t>Jaycris Tubbs</t>
+  </si>
+  <si>
+    <t>Wilhuff Tarkin</t>
+  </si>
+  <si>
+    <t>Pinrado Noza</t>
+  </si>
+  <si>
+    <t>Guswan Askreeth</t>
+  </si>
+  <si>
+    <t>PZ-4CO</t>
+  </si>
+  <si>
+    <t>Unidentified female Resistance monitor</t>
   </si>
   <si>
     <t>Stella</t>
-  </si>
-  <si>
-    <t>Porg Stowaway</t>
-  </si>
-  <si>
-    <t>Auk-Waimanu</t>
-  </si>
-  <si>
-    <t>Lovey</t>
-  </si>
-  <si>
-    <t>Amilyn Holdo</t>
-  </si>
-  <si>
-    <t>Hoth Stuff</t>
-  </si>
-  <si>
-    <t>Alissyndrex delga Cantonica Provincion</t>
-  </si>
-  <si>
-    <t>Korfé Bennux-Ai</t>
-  </si>
-  <si>
-    <t>Geno Namit</t>
-  </si>
-  <si>
-    <t>Moden Canady</t>
-  </si>
-  <si>
-    <t>Wayulia Tagge-Simoni</t>
-  </si>
-  <si>
-    <t>Ubialla Gheal</t>
-  </si>
-  <si>
-    <t>Finn</t>
-  </si>
-  <si>
-    <t>Obi-Wan Kenobi</t>
-  </si>
-  <si>
-    <t>R4-X2</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Lexo Sooger</t>
-  </si>
-  <si>
-    <t>Letrun Pay</t>
-  </si>
-  <si>
-    <t>Rey</t>
-  </si>
-  <si>
-    <t>Tritt Opan</t>
-  </si>
-  <si>
-    <t>Armitage Hux</t>
-  </si>
-  <si>
-    <t>Goneril</t>
-  </si>
-  <si>
-    <t>Brun Obatsun</t>
-  </si>
-  <si>
-    <t>Finch Dallow</t>
-  </si>
-  <si>
-    <t>Jober Tavson</t>
-  </si>
-  <si>
-    <t>Nossit Cicer</t>
-  </si>
-  <si>
-    <t>Salaka Kuchimba</t>
-  </si>
-  <si>
-    <t>Unidentified Bufopel (Canto Bight)</t>
-  </si>
-  <si>
-    <t>Pamich Nerro Goode</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>Gial Ackbar</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>Snoke</t>
-  </si>
-  <si>
-    <t>Corm-Kairuku</t>
-  </si>
-  <si>
-    <t>Dhuz</t>
-  </si>
-  <si>
-    <t>Thamm</t>
-  </si>
-  <si>
-    <t>Unidentified male Resistance soldier (Crait)</t>
-  </si>
-  <si>
-    <t>Cobel Tansirch</t>
-  </si>
-  <si>
-    <t>Terna-Gentu</t>
-  </si>
-  <si>
-    <t>Kaydel Ko Connix</t>
-  </si>
-  <si>
-    <t>Stomeroni Starck</t>
-  </si>
-  <si>
-    <t>Hhex</t>
-  </si>
-  <si>
-    <t>Koo Millham</t>
-  </si>
-  <si>
-    <t>Nien Nunb</t>
-  </si>
-  <si>
-    <t>Centada Ressad</t>
-  </si>
-  <si>
-    <t>Derham Boyce</t>
-  </si>
-  <si>
-    <t>Maz Kanata</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>Derla Pidys</t>
-  </si>
-  <si>
-    <t>Rhomby Grammus</t>
-  </si>
-  <si>
-    <t>Shuma Kalamo</t>
-  </si>
-  <si>
-    <t>Riva Rosetta</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
-  </si>
-  <si>
-    <t>BB-9E</t>
-  </si>
-  <si>
-    <t>Lank Paze</t>
-  </si>
-  <si>
-    <t>Nodin Chavdri</t>
-  </si>
-  <si>
-    <t>Alcida-Auka</t>
-  </si>
-  <si>
-    <t>Loatha Sommover</t>
-  </si>
-  <si>
-    <t>B-U4D</t>
-  </si>
-  <si>
-    <t>Sharp (Resistance)</t>
-  </si>
-  <si>
-    <t>Neepers Panpick</t>
-  </si>
-  <si>
-    <t>Arashell Sar</t>
-  </si>
-  <si>
-    <t>Grayla Stindy</t>
-  </si>
-  <si>
-    <t>Dynym Quid</t>
-  </si>
-  <si>
-    <t>Unidentified Canto Casino patron</t>
-  </si>
-  <si>
-    <t>Poe Dameron</t>
-  </si>
-  <si>
-    <t>Torreb Savato</t>
-  </si>
-  <si>
-    <t>Larma D'Acy</t>
-  </si>
-  <si>
-    <t>Saile Minnau</t>
-  </si>
-  <si>
-    <t>Guila Angira</t>
-  </si>
-  <si>
-    <t>Caluan Ematt</t>
-  </si>
-  <si>
-    <t>Sommel Atandu</t>
-  </si>
-  <si>
-    <t>Prime Jedi</t>
-  </si>
-  <si>
-    <t>Armitage Hux's mother</t>
-  </si>
-  <si>
-    <t>Unidentified Anodyne pilot</t>
-  </si>
-  <si>
-    <t>Parallela Grammus</t>
-  </si>
-  <si>
-    <t>First Guard</t>
-  </si>
-  <si>
-    <t>Daxo Ecloss</t>
-  </si>
-  <si>
-    <t>Ronith Blario</t>
-  </si>
-  <si>
-    <t>Third Guard</t>
-  </si>
-  <si>
-    <t>Poldin LeHuse</t>
-  </si>
-  <si>
-    <t>Edmo Ectacle</t>
-  </si>
-  <si>
-    <t>Goss Toowers</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Unidentified transport pilot</t>
-  </si>
-  <si>
-    <t>Peera Maso</t>
-  </si>
-  <si>
-    <t>Ubbla Mollbro</t>
-  </si>
-  <si>
-    <t>Sibos Tammis</t>
-  </si>
-  <si>
-    <t>Ted</t>
-  </si>
-  <si>
-    <t>Wodibin</t>
-  </si>
-  <si>
-    <t>Bollie Prindel</t>
-  </si>
-  <si>
-    <t>Dillon</t>
-  </si>
-  <si>
-    <t>Dobbu Scay</t>
-  </si>
-  <si>
-    <t>Sturg Ganna</t>
-  </si>
-  <si>
-    <t>Kedpin Shoklop</t>
-  </si>
-  <si>
-    <t>Dodibin</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>Grebe-Korora</t>
-  </si>
-  <si>
-    <t>Teene</t>
-  </si>
-  <si>
-    <t>Unidentified flight engineer</t>
-  </si>
-  <si>
-    <t>Sosear Latta</t>
-  </si>
-  <si>
-    <t>BB-4</t>
-  </si>
-  <si>
-    <t>Cova Nell</t>
-  </si>
-  <si>
-    <t>Snook Uccorfay</t>
-  </si>
-  <si>
-    <t>Vylla Tendeil</t>
-  </si>
-  <si>
-    <t>BB-8</t>
-  </si>
-  <si>
-    <t>Slowen Lo</t>
-  </si>
-  <si>
-    <t>Phi</t>
-  </si>
-  <si>
-    <t>Temiri Blagg</t>
-  </si>
-  <si>
-    <t>Hal (Imperial officer)</t>
-  </si>
-  <si>
-    <t>Karlus Stee</t>
-  </si>
-  <si>
-    <t>Rose Tico</t>
-  </si>
-  <si>
-    <t>2BB-2</t>
-  </si>
-  <si>
-    <t>Hesper-Inguza</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Idrosen Gawat</t>
-  </si>
-  <si>
-    <t>Trypto Buball</t>
-  </si>
-  <si>
-    <t>Kylo Ren</t>
-  </si>
-  <si>
-    <t>Rumitar Shay</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Lusica Stynnix</t>
-  </si>
-  <si>
-    <t>Master Codebreaker</t>
-  </si>
-  <si>
-    <t>Jaycris Tubbs</t>
-  </si>
-  <si>
-    <t>Wilhuff Tarkin</t>
-  </si>
-  <si>
-    <t>Pinrado Noza</t>
-  </si>
-  <si>
-    <t>Guswan Askreeth</t>
-  </si>
-  <si>
-    <t>PZ-4CO</t>
-  </si>
-  <si>
-    <t>Unidentified female Resistance monitor</t>
-  </si>
-  <si>
-    <t>Anglang Lehet</t>
   </si>
   <si>
     <t>Edrison Peavey</t>
@@ -887,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +915,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -924,13 +936,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E2">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -944,13 +962,19 @@
         <v>0.03614457831325302</v>
       </c>
       <c r="E3">
-        <v>0.001578182409425771</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.001585768435981367</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -964,13 +988,19 @@
         <v>0.04216867469879518</v>
       </c>
       <c r="E4">
-        <v>1.426569595909601e-09</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.475775206426153e-09</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -984,13 +1014,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E5">
-        <v>4.881518589429795e-10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>5.049893201596991e-10</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1004,18 +1040,24 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02527475764333445</v>
+        <v>0.02534118476064453</v>
       </c>
       <c r="C7">
         <v>61</v>
@@ -1024,13 +1066,19 @@
         <v>0.3674698795180723</v>
       </c>
       <c r="E7">
-        <v>0.2829450436980076</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.2835414263168871</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,13 +1092,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E8">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1064,13 +1118,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E9">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1084,13 +1144,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1104,33 +1170,45 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E11">
-        <v>2.798953182363799e-17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>2.895495405428383e-17</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0001354847953683487</v>
+        <v>0.00831610084128225</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>0.05421686746987952</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="E12">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.188157690882369</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1144,13 +1222,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1164,18 +1248,24 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E14">
-        <v>0.001385733006061887</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.001396240880619349</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0003253554068578874</v>
+        <v>0.0003259085837527948</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1184,13 +1274,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E15">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1204,13 +1300,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E16">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1224,33 +1326,45 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E17">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01136819602548821</v>
+        <v>0.0002357753398279137</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>0.3072289156626506</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="E18">
-        <v>0.2819363196184279</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>2.895495405428383e-17</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1264,13 +1378,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E19">
-        <v>2.798953182363799e-17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>2.895495405428383e-17</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1284,13 +1404,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E20">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1304,18 +1430,24 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E21">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.002293362192604056</v>
+        <v>0.002295409445472776</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -1324,18 +1456,24 @@
         <v>0.1506024096385542</v>
       </c>
       <c r="E22">
-        <v>0.09992173397074461</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.1003053897901616</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0003432853227684797</v>
+        <v>0.0003433372568724112</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1344,13 +1482,19 @@
         <v>0.1204819277108434</v>
       </c>
       <c r="E23">
-        <v>0.1482354439936413</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.1491630080265626</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1364,13 +1508,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E24">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1384,13 +1534,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E25">
-        <v>0.0016833150254235</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.00169170665463881</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1404,13 +1560,19 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1424,13 +1586,19 @@
         <v>0.06626506024096386</v>
       </c>
       <c r="E27">
-        <v>0.06145001718778518</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06166285157352189</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1444,13 +1612,19 @@
         <v>0.06626506024096386</v>
       </c>
       <c r="E28">
-        <v>1.543851033602002e-09</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1.59710194605157e-09</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1464,13 +1638,19 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1484,13 +1664,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E30">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1498,19 +1684,25 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>0.03012048192771084</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E31">
-        <v>8.924870869131598e-12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1524,13 +1716,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E32">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1544,13 +1742,19 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1564,18 +1768,24 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E34">
-        <v>0.003140400106229979</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.003097126172483541</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01319283697021732</v>
+        <v>0.01319348763474672</v>
       </c>
       <c r="C35">
         <v>35</v>
@@ -1584,13 +1794,19 @@
         <v>0.2108433734939759</v>
       </c>
       <c r="E35">
-        <v>0.1333644935685835</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.1340152013866594</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1598,19 +1814,25 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.02409638554216868</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1624,13 +1846,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E37">
-        <v>6.116832284737844e-14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>6.327815659023186e-14</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1644,13 +1872,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E38">
-        <v>0.01482983837572387</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01487333385281385</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1664,13 +1898,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E39">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1684,13 +1924,19 @@
         <v>0.04819277108433735</v>
       </c>
       <c r="E40">
-        <v>0.02080558119762088</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02090415258094643</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1704,13 +1950,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E41">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1724,18 +1976,24 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E42">
-        <v>2.127092460469192e-13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>2.200460688309353e-13</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0474818294046099</v>
+        <v>0.04752860052663899</v>
       </c>
       <c r="C43">
         <v>67</v>
@@ -1744,18 +2002,24 @@
         <v>0.4036144578313253</v>
       </c>
       <c r="E43">
-        <v>0.2226541861938656</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.2226763215762467</v>
+      </c>
+      <c r="F43">
+        <v>45</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0002465282074876495</v>
+        <v>0.0002465541745396152</v>
       </c>
       <c r="C44">
         <v>24</v>
@@ -1764,13 +2028,19 @@
         <v>0.1445783132530121</v>
       </c>
       <c r="E44">
-        <v>0.187812592530656</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1888676789332449</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1784,18 +2054,24 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.008378774272628609</v>
+        <v>0.008411379928685004</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -1804,13 +2080,19 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="E46">
-        <v>0.2495443124448466</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.2499147117482904</v>
+      </c>
+      <c r="F46">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1824,13 +2106,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E47">
-        <v>1.716532416600499e-10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>1.775739500343529e-10</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1844,18 +2132,24 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E48">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.00436167769663842</v>
+        <v>0.004396156849140958</v>
       </c>
       <c r="C49">
         <v>40</v>
@@ -1864,13 +2158,19 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="E49">
-        <v>0.2648765582204812</v>
-      </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.2652336889877752</v>
+      </c>
+      <c r="F49">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1884,18 +2184,24 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E50">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0105240867784021</v>
+        <v>0.01052528052635321</v>
       </c>
       <c r="C51">
         <v>33</v>
@@ -1904,13 +2210,19 @@
         <v>0.1987951807228916</v>
       </c>
       <c r="E51">
-        <v>0.1203482056619859</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.1208292189505568</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1924,13 +2236,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E52">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1944,13 +2262,19 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1964,13 +2288,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E54">
-        <v>2.798953182363799e-17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>2.895495405428383e-17</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1984,13 +2314,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E55">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1998,19 +2334,25 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.01204819277108434</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="E56">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2024,13 +2366,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2044,13 +2392,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E58">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2064,18 +2418,24 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E59">
-        <v>2.798953182363799e-17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>2.895495405428383e-17</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.00141205801638685</v>
+        <v>0.001434456730682338</v>
       </c>
       <c r="C60">
         <v>29</v>
@@ -2084,18 +2444,24 @@
         <v>0.1746987951807229</v>
       </c>
       <c r="E60">
-        <v>0.175931037416574</v>
-      </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1768606115119297</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004715437868634295</v>
+        <v>0.00471622153590208</v>
       </c>
       <c r="C61">
         <v>28</v>
@@ -2104,18 +2470,24 @@
         <v>0.1686746987951807</v>
       </c>
       <c r="E61">
-        <v>0.1429828499237581</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.1438287067488967</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004342220053442958</v>
+        <v>0.004356245271509786</v>
       </c>
       <c r="C62">
         <v>38</v>
@@ -2124,33 +2496,45 @@
         <v>0.2289156626506024</v>
       </c>
       <c r="E62">
-        <v>0.2498553093522471</v>
-      </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.2501763113363695</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.008305230461430222</v>
+        <v>0.0001354847953683487</v>
       </c>
       <c r="C63">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D63">
-        <v>0.2289156626506024</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="E63">
-        <v>0.1881696035000089</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2164,13 +2548,19 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2184,13 +2574,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E65">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2204,13 +2600,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E66">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2224,13 +2626,19 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2244,13 +2652,19 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2264,18 +2678,24 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E69">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.001620133678957208</v>
+        <v>0.001620517991326302</v>
       </c>
       <c r="C70">
         <v>11</v>
@@ -2284,13 +2704,19 @@
         <v>0.06626506024096386</v>
       </c>
       <c r="E70">
-        <v>0.03299033091199496</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.03313004211276111</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2304,13 +2730,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E71">
-        <v>8.770053304739902e-16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>9.072552270342265e-16</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2324,13 +2756,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E72">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2344,13 +2782,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E73">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2364,13 +2808,19 @@
         <v>0.08433734939759037</v>
       </c>
       <c r="E74">
-        <v>0.0824990614878949</v>
-      </c>
-      <c r="F74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08298353818980062</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2384,13 +2834,19 @@
         <v>0.04819277108433735</v>
       </c>
       <c r="E75">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2404,33 +2860,45 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.002399591080580461</v>
+        <v>0.00225171677471367</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>0.1566265060240964</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="E77">
-        <v>0.1650953759475318</v>
-      </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1509879943024784</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2444,13 +2912,19 @@
         <v>0.1325301204819277</v>
       </c>
       <c r="E78">
-        <v>0.1737659829480822</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1738303760095145</v>
+      </c>
+      <c r="F78">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2464,13 +2938,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E79">
-        <v>2.573506833368336e-13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>2.662272902172478e-13</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2484,13 +2964,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E80">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2504,13 +2990,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E81">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2524,18 +3016,24 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001908983659548871</v>
+        <v>0.00191455199586319</v>
       </c>
       <c r="C83">
         <v>32</v>
@@ -2544,13 +3042,19 @@
         <v>0.1927710843373494</v>
       </c>
       <c r="E83">
-        <v>0.1946738895861262</v>
-      </c>
-      <c r="F83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.1957014185461171</v>
+      </c>
+      <c r="F83">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2564,13 +3068,19 @@
         <v>0.05421686746987952</v>
       </c>
       <c r="E84">
-        <v>0.03934652422641299</v>
-      </c>
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.03950861170969932</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2584,13 +3094,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E85">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2604,13 +3120,19 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E86">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2624,13 +3146,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E87">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2644,13 +3172,19 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2664,13 +3198,19 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2678,19 +3218,25 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>0.006024096385542169</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E90">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2704,13 +3250,19 @@
         <v>0.04216867469879518</v>
       </c>
       <c r="E91">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2724,13 +3276,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E92">
-        <v>0.0001051326159977318</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.0001059382186574449</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2744,13 +3302,19 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2764,13 +3328,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E94">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2784,18 +3354,24 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E95">
-        <v>5.146472535788081e-13</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>5.323986008566572e-13</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01853388685146061</v>
+        <v>0.01853971980004242</v>
       </c>
       <c r="C96">
         <v>53</v>
@@ -2804,13 +3380,19 @@
         <v>0.319277108433735</v>
       </c>
       <c r="E96">
-        <v>0.2123800546056427</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0.2124768030261099</v>
+      </c>
+      <c r="F96">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2824,13 +3406,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E97">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2844,13 +3432,19 @@
         <v>0.04819277108433735</v>
       </c>
       <c r="E98">
-        <v>0.01840579887572807</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.0185578713559647</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2864,13 +3458,19 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2884,18 +3484,24 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E100">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.001854663834400965</v>
+        <v>0.001854663834400966</v>
       </c>
       <c r="C101">
         <v>11</v>
@@ -2904,13 +3510,19 @@
         <v>0.06626506024096386</v>
       </c>
       <c r="E101">
-        <v>0.08628447485113673</v>
-      </c>
-      <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.08666649976165182</v>
+      </c>
+      <c r="F101">
+        <v>7</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2924,13 +3536,19 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2944,13 +3562,19 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2964,13 +3588,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E104">
-        <v>0.02216128261631555</v>
-      </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>0.02226265335727994</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2984,13 +3614,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E105">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3004,13 +3640,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E106">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3024,13 +3666,19 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E107">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>112</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3044,13 +3692,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E108">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3064,13 +3718,19 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3084,13 +3744,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E110">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3104,13 +3770,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E111">
-        <v>0.02633620685471234</v>
-      </c>
-      <c r="F111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>0.02648942261748504</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3124,13 +3796,19 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E112">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3144,33 +3822,45 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0009646215256748115</v>
+        <v>0.0008407367663233578</v>
       </c>
       <c r="C114">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D114">
-        <v>0.1987951807228916</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="E114">
-        <v>0.2198823261914696</v>
-      </c>
-      <c r="F114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>0.2211290948180825</v>
+      </c>
+      <c r="F114">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3184,13 +3874,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E115">
-        <v>0.00888277580311307</v>
-      </c>
-      <c r="F115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>0.008951401203689783</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3204,13 +3900,19 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3224,13 +3926,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E117">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3244,13 +3952,19 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3264,13 +3978,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E119">
-        <v>8.924870869131598e-12</v>
-      </c>
-      <c r="F119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>9.232709842537587e-12</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3284,13 +4004,19 @@
         <v>0.04216867469879518</v>
       </c>
       <c r="E120">
-        <v>1.426584880059945e-09</v>
-      </c>
-      <c r="F120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>1.475791017761397e-09</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3304,13 +4030,19 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E121">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3324,13 +4056,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E122">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3344,13 +4082,19 @@
         <v>0.04216867469879518</v>
       </c>
       <c r="E123">
-        <v>0.01433596749511999</v>
-      </c>
-      <c r="F123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>0.01437973170432015</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3364,13 +4108,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E124">
-        <v>5.423729243540072e-10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>5.610805926984106e-10</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3384,13 +4134,19 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E125">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3404,18 +4160,24 @@
         <v>0.04819277108433735</v>
       </c>
       <c r="E126">
-        <v>1.543835747585689e-09</v>
-      </c>
-      <c r="F126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>1.597086132785995e-09</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.01183452512268277</v>
+        <v>0.01184090995679282</v>
       </c>
       <c r="C127">
         <v>26</v>
@@ -3424,13 +4186,19 @@
         <v>0.1566265060240964</v>
       </c>
       <c r="E127">
-        <v>0.08741616594856054</v>
-      </c>
-      <c r="F127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>0.08775515781620044</v>
+      </c>
+      <c r="F127">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3444,13 +4212,19 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>133</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3464,13 +4238,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E129">
-        <v>8.770053304739902e-16</v>
-      </c>
-      <c r="F129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>9.072552270342265e-16</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3484,13 +4264,19 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3504,13 +4290,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E131">
-        <v>2.798953182363799e-17</v>
-      </c>
-      <c r="F131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>2.895495405428383e-17</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3524,13 +4316,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E132">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>137</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3544,13 +4342,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E133">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3564,13 +4368,19 @@
         <v>0.04819277108433735</v>
       </c>
       <c r="E134">
-        <v>3.639105629269999e-13</v>
-      </c>
-      <c r="F134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>3.764626609624469e-13</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>139</v>
+      </c>
+      <c r="H134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3584,18 +4394,24 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E135">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>140</v>
+      </c>
+      <c r="H135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01190479203656693</v>
+        <v>0.01194922252601075</v>
       </c>
       <c r="C136">
         <v>40</v>
@@ -3604,13 +4420,19 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="E136">
-        <v>0.2152413292405329</v>
-      </c>
-      <c r="F136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>0.215288575529487</v>
+      </c>
+      <c r="F136">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
+      <c r="H136">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3624,13 +4446,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E137">
-        <v>0.01482983837572387</v>
-      </c>
-      <c r="F137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>0.01487333385281385</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>142</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3644,13 +4472,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E138">
-        <v>8.924870869131598e-12</v>
-      </c>
-      <c r="F138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>9.232709842537587e-12</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138" t="s">
+        <v>143</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3664,13 +4498,19 @@
         <v>0.05421686746987952</v>
       </c>
       <c r="E139">
-        <v>0.02358821338874709</v>
-      </c>
-      <c r="F139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>0.02363395348361343</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3684,13 +4524,19 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>145</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3704,18 +4550,24 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E141">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>146</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.01829857927520193</v>
+        <v>0.01829215174787742</v>
       </c>
       <c r="C142">
         <v>51</v>
@@ -3724,33 +4576,45 @@
         <v>0.3072289156626506</v>
       </c>
       <c r="E142">
-        <v>0.1298111533939304</v>
-      </c>
-      <c r="F142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>0.1294646069943109</v>
+      </c>
+      <c r="F142">
+        <v>39</v>
+      </c>
+      <c r="G142" t="s">
+        <v>147</v>
+      </c>
+      <c r="H142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0002357753398279137</v>
+        <v>0.0114242609217272</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D143">
-        <v>0.03012048192771084</v>
+        <v>0.3072289156626506</v>
       </c>
       <c r="E143">
-        <v>2.798953182363799e-17</v>
-      </c>
-      <c r="F143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>0.2825208246541241</v>
+      </c>
+      <c r="F143">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
+        <v>148</v>
+      </c>
+      <c r="H143">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3764,18 +4628,24 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F144" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>149</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001878405420235022</v>
+        <v>0.001878759909838373</v>
       </c>
       <c r="C145">
         <v>34</v>
@@ -3784,13 +4654,19 @@
         <v>0.2048192771084338</v>
       </c>
       <c r="E145">
-        <v>0.221166963047988</v>
-      </c>
-      <c r="F145" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>0.2215417034786787</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>150</v>
+      </c>
+      <c r="H145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3804,13 +4680,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E146">
-        <v>2.798953182363799e-17</v>
-      </c>
-      <c r="F146" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>2.895495405428383e-17</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>151</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3818,24 +4700,30 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="E147">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>152</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.008533190910818609</v>
+        <v>0.008568880405967106</v>
       </c>
       <c r="C148">
         <v>45</v>
@@ -3844,13 +4732,19 @@
         <v>0.2710843373493976</v>
       </c>
       <c r="E148">
-        <v>0.2524391268778142</v>
-      </c>
-      <c r="F148" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>0.252770998404903</v>
+      </c>
+      <c r="F148">
+        <v>28</v>
+      </c>
+      <c r="G148" t="s">
+        <v>153</v>
+      </c>
+      <c r="H148">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3864,13 +4758,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E149">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F149" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>154</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3884,13 +4784,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E150">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>155</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3904,13 +4810,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E151">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F151" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>3.162653114835908e-14</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>156</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3924,13 +4836,19 @@
         <v>0.108433734939759</v>
       </c>
       <c r="E152">
-        <v>0.04714833281837148</v>
-      </c>
-      <c r="F152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>0.04636701668729281</v>
+      </c>
+      <c r="F152">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>157</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3944,18 +4862,24 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E153">
-        <v>1.3387305370713e-11</v>
-      </c>
-      <c r="F153" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>1.384906379864125e-11</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="G153" t="s">
+        <v>158</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7.554131917614557e-05</v>
+        <v>7.556728622811134e-05</v>
       </c>
       <c r="C154">
         <v>15</v>
@@ -3964,13 +4888,19 @@
         <v>0.09036144578313253</v>
       </c>
       <c r="E154">
-        <v>0.1046623651713334</v>
-      </c>
-      <c r="F154" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>0.1053685184208133</v>
+      </c>
+      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>159</v>
+      </c>
+      <c r="H154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3984,13 +4914,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E155">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>160</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4004,18 +4940,24 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F156" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>161</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.0003617996894042252</v>
+        <v>0.0003618957674964986</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -4024,13 +4966,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E157">
-        <v>0.01884491626641774</v>
-      </c>
-      <c r="F157" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>0.01893809735256879</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157" t="s">
+        <v>162</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4044,13 +4992,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E158">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>163</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4058,19 +5012,25 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>0.01204819277108434</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="E159">
-        <v>3.057203262656564e-14</v>
-      </c>
-      <c r="F159" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>9.232709842537587e-12</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159" t="s">
+        <v>164</v>
+      </c>
+      <c r="H159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4084,13 +5044,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E160">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F160" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>165</v>
+      </c>
+      <c r="H160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4104,13 +5070,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E161">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>166</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4124,13 +5096,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E162">
-        <v>3.639105629269999e-13</v>
-      </c>
-      <c r="F162" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>3.764626609624469e-13</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>167</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4144,13 +5122,19 @@
         <v>0.03614457831325302</v>
       </c>
       <c r="E163">
-        <v>1.977926915537084e-16</v>
-      </c>
-      <c r="F163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>2.046150086502724e-16</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>168</v>
+      </c>
+      <c r="H163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4164,13 +5148,19 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E164">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F164" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>169</v>
+      </c>
+      <c r="H164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4184,13 +5174,19 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E165">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F165" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>170</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4204,13 +5200,19 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E166">
-        <v>6.114219928434305e-14</v>
-      </c>
-      <c r="F166" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>6.325113196644788e-14</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166" t="s">
+        <v>171</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4224,13 +5226,19 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E167">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F167" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>172</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4244,10 +5252,16 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>1.865968788242532e-18</v>
-      </c>
-      <c r="F168" t="s">
-        <v>171</v>
+        <v>1.930330270285588e-18</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>173</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/Data/Star_Wars_Episode_VIII_The_Last_Jedi/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_VIII_The_Last_Jedi/centrality.xlsx
@@ -67,448 +67,448 @@
     <t>Ro</t>
   </si>
   <si>
+    <t>C'ai Threnalli</t>
+  </si>
+  <si>
+    <t>Y5-X2</t>
+  </si>
+  <si>
+    <t>Suday Bascus</t>
+  </si>
+  <si>
+    <t>Clyss Power</t>
+  </si>
+  <si>
+    <t>Glowen Faquidde</t>
+  </si>
+  <si>
+    <t>Wolfid Dorna</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>Stepheden Thaldree</t>
+  </si>
+  <si>
+    <t>Arca Yroca</t>
+  </si>
+  <si>
+    <t>Nix Jerd</t>
+  </si>
+  <si>
+    <t>Phasma</t>
+  </si>
+  <si>
+    <t>Bail Organa</t>
+  </si>
+  <si>
+    <t>Vober Dand</t>
+  </si>
+  <si>
+    <t>Bargwill Tomder</t>
+  </si>
+  <si>
+    <t>Thomkins Watam</t>
+  </si>
+  <si>
+    <t>Paige Tico</t>
+  </si>
+  <si>
+    <t>Kaljach Sonmi</t>
+  </si>
+  <si>
+    <t>Soburi Hannemtin</t>
+  </si>
+  <si>
+    <t>Yasto Attsmun</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>Porg Stowaway</t>
+  </si>
+  <si>
+    <t>Auk-Waimanu</t>
+  </si>
+  <si>
+    <t>Lovey</t>
+  </si>
+  <si>
+    <t>Amilyn Holdo</t>
+  </si>
+  <si>
+    <t>Hoth Stuff</t>
+  </si>
+  <si>
+    <t>Alissyndrex delga Cantonica Provincion</t>
+  </si>
+  <si>
+    <t>Korfé Bennux-Ai</t>
+  </si>
+  <si>
+    <t>Geno Namit</t>
+  </si>
+  <si>
+    <t>Moden Canady</t>
+  </si>
+  <si>
+    <t>Wayulia Tagge-Simoni</t>
+  </si>
+  <si>
+    <t>Ubialla Gheal</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>R4-X2</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Lexo Sooger</t>
+  </si>
+  <si>
+    <t>Letrun Pay</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>Tritt Opan</t>
+  </si>
+  <si>
+    <t>Armitage Hux</t>
+  </si>
+  <si>
+    <t>Goneril</t>
+  </si>
+  <si>
+    <t>Brun Obatsun</t>
+  </si>
+  <si>
+    <t>Finch Dallow</t>
+  </si>
+  <si>
+    <t>Jober Tavson</t>
+  </si>
+  <si>
+    <t>Nossit Cicer</t>
+  </si>
+  <si>
+    <t>Salaka Kuchimba</t>
+  </si>
+  <si>
+    <t>Unidentified Bufopel (Canto Bight)</t>
+  </si>
+  <si>
+    <t>Pamich Nerro Goode</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>Gial Ackbar</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
     <t>Snoke</t>
   </si>
   <si>
-    <t>Y5-X2</t>
-  </si>
-  <si>
-    <t>Suday Bascus</t>
-  </si>
-  <si>
-    <t>Clyss Power</t>
-  </si>
-  <si>
-    <t>Glowen Faquidde</t>
-  </si>
-  <si>
-    <t>Wolfid Dorna</t>
+    <t>Corm-Kairuku</t>
+  </si>
+  <si>
+    <t>Dhuz</t>
+  </si>
+  <si>
+    <t>Thamm</t>
+  </si>
+  <si>
+    <t>Unidentified male Resistance soldier (Crait)</t>
+  </si>
+  <si>
+    <t>Cobel Tansirch</t>
+  </si>
+  <si>
+    <t>Terna-Gentu</t>
+  </si>
+  <si>
+    <t>Kaydel Ko Connix</t>
+  </si>
+  <si>
+    <t>Stomeroni Starck</t>
+  </si>
+  <si>
+    <t>Hhex</t>
+  </si>
+  <si>
+    <t>Koo Millham</t>
+  </si>
+  <si>
+    <t>Nien Nunb</t>
+  </si>
+  <si>
+    <t>Centada Ressad</t>
+  </si>
+  <si>
+    <t>Derham Boyce</t>
+  </si>
+  <si>
+    <t>Maz Kanata</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Derla Pidys</t>
+  </si>
+  <si>
+    <t>Rhomby Grammus</t>
+  </si>
+  <si>
+    <t>Shuma Kalamo</t>
+  </si>
+  <si>
+    <t>Riva Rosetta</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>BB-9E</t>
+  </si>
+  <si>
+    <t>Lank Paze</t>
+  </si>
+  <si>
+    <t>Nodin Chavdri</t>
+  </si>
+  <si>
+    <t>Alcida-Auka</t>
+  </si>
+  <si>
+    <t>Loatha Sommover</t>
+  </si>
+  <si>
+    <t>B-U4D</t>
+  </si>
+  <si>
+    <t>Sharp (Resistance)</t>
+  </si>
+  <si>
+    <t>Neepers Panpick</t>
+  </si>
+  <si>
+    <t>Arashell Sar</t>
+  </si>
+  <si>
+    <t>Grayla Stindy</t>
+  </si>
+  <si>
+    <t>Dynym Quid</t>
+  </si>
+  <si>
+    <t>Unidentified Canto Casino patron</t>
+  </si>
+  <si>
+    <t>Poe Dameron</t>
+  </si>
+  <si>
+    <t>Torreb Savato</t>
+  </si>
+  <si>
+    <t>Larma D'Acy</t>
+  </si>
+  <si>
+    <t>Saile Minnau</t>
+  </si>
+  <si>
+    <t>Guila Angira</t>
+  </si>
+  <si>
+    <t>Caluan Ematt</t>
+  </si>
+  <si>
+    <t>Sommel Atandu</t>
+  </si>
+  <si>
+    <t>Prime Jedi</t>
+  </si>
+  <si>
+    <t>Armitage Hux's mother</t>
+  </si>
+  <si>
+    <t>Unidentified Anodyne pilot</t>
+  </si>
+  <si>
+    <t>Parallela Grammus</t>
+  </si>
+  <si>
+    <t>First Guard</t>
+  </si>
+  <si>
+    <t>Daxo Ecloss</t>
+  </si>
+  <si>
+    <t>Ronith Blario</t>
+  </si>
+  <si>
+    <t>Third Guard</t>
+  </si>
+  <si>
+    <t>Poldin LeHuse</t>
+  </si>
+  <si>
+    <t>Edmo Ectacle</t>
+  </si>
+  <si>
+    <t>Goss Toowers</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Unidentified transport pilot</t>
+  </si>
+  <si>
+    <t>Peera Maso</t>
+  </si>
+  <si>
+    <t>Ubbla Mollbro</t>
+  </si>
+  <si>
+    <t>Sibos Tammis</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Wodibin</t>
+  </si>
+  <si>
+    <t>Bollie Prindel</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Dobbu Scay</t>
+  </si>
+  <si>
+    <t>Sturg Ganna</t>
+  </si>
+  <si>
+    <t>Kedpin Shoklop</t>
+  </si>
+  <si>
+    <t>Dodibin</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Grebe-Korora</t>
+  </si>
+  <si>
+    <t>Teene</t>
+  </si>
+  <si>
+    <t>Unidentified flight engineer</t>
+  </si>
+  <si>
+    <t>Sosear Latta</t>
+  </si>
+  <si>
+    <t>BB-4</t>
+  </si>
+  <si>
+    <t>Cova Nell</t>
+  </si>
+  <si>
+    <t>Snook Uccorfay</t>
+  </si>
+  <si>
+    <t>Vylla Tendeil</t>
+  </si>
+  <si>
+    <t>BB-8</t>
+  </si>
+  <si>
+    <t>Slowen Lo</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Temiri Blagg</t>
+  </si>
+  <si>
+    <t>Hal (Imperial officer)</t>
+  </si>
+  <si>
+    <t>Karlus Stee</t>
+  </si>
+  <si>
+    <t>Rose Tico</t>
   </si>
   <si>
     <t>2BB-2</t>
   </si>
   <si>
-    <t>Stepheden Thaldree</t>
-  </si>
-  <si>
-    <t>Arca Yroca</t>
-  </si>
-  <si>
-    <t>Nix Jerd</t>
-  </si>
-  <si>
-    <t>Phasma</t>
-  </si>
-  <si>
-    <t>Bail Organa</t>
-  </si>
-  <si>
-    <t>Vober Dand</t>
-  </si>
-  <si>
-    <t>Bargwill Tomder</t>
-  </si>
-  <si>
-    <t>Thomkins Watam</t>
-  </si>
-  <si>
-    <t>Paige Tico</t>
-  </si>
-  <si>
-    <t>Kaljach Sonmi</t>
-  </si>
-  <si>
-    <t>Soburi Hannemtin</t>
-  </si>
-  <si>
-    <t>Yasto Attsmun</t>
+    <t>Hesper-Inguza</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Idrosen Gawat</t>
+  </si>
+  <si>
+    <t>Trypto Buball</t>
+  </si>
+  <si>
+    <t>Kylo Ren</t>
+  </si>
+  <si>
+    <t>Rumitar Shay</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Lusica Stynnix</t>
+  </si>
+  <si>
+    <t>Master Codebreaker</t>
+  </si>
+  <si>
+    <t>Jaycris Tubbs</t>
+  </si>
+  <si>
+    <t>Wilhuff Tarkin</t>
+  </si>
+  <si>
+    <t>Pinrado Noza</t>
+  </si>
+  <si>
+    <t>Guswan Askreeth</t>
+  </si>
+  <si>
+    <t>PZ-4CO</t>
+  </si>
+  <si>
+    <t>Unidentified female Resistance monitor</t>
   </si>
   <si>
     <t>Anglang Lehet</t>
-  </si>
-  <si>
-    <t>Porg Stowaway</t>
-  </si>
-  <si>
-    <t>Auk-Waimanu</t>
-  </si>
-  <si>
-    <t>Lovey</t>
-  </si>
-  <si>
-    <t>Amilyn Holdo</t>
-  </si>
-  <si>
-    <t>Trypto Buball</t>
-  </si>
-  <si>
-    <t>Alissyndrex delga Cantonica Provincion</t>
-  </si>
-  <si>
-    <t>Korfé Bennux-Ai</t>
-  </si>
-  <si>
-    <t>Geno Namit</t>
-  </si>
-  <si>
-    <t>Moden Canady</t>
-  </si>
-  <si>
-    <t>Wayulia Tagge-Simoni</t>
-  </si>
-  <si>
-    <t>Ubialla Gheal</t>
-  </si>
-  <si>
-    <t>Finn</t>
-  </si>
-  <si>
-    <t>Obi-Wan Kenobi</t>
-  </si>
-  <si>
-    <t>R4-X2</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Lexo Sooger</t>
-  </si>
-  <si>
-    <t>Letrun Pay</t>
-  </si>
-  <si>
-    <t>Rey</t>
-  </si>
-  <si>
-    <t>Tritt Opan</t>
-  </si>
-  <si>
-    <t>Armitage Hux</t>
-  </si>
-  <si>
-    <t>Goneril</t>
-  </si>
-  <si>
-    <t>Brun Obatsun</t>
-  </si>
-  <si>
-    <t>Finch Dallow</t>
-  </si>
-  <si>
-    <t>Jober Tavson</t>
-  </si>
-  <si>
-    <t>Sharp (Resistance)</t>
-  </si>
-  <si>
-    <t>Salaka Kuchimba</t>
-  </si>
-  <si>
-    <t>Unidentified Bufopel (Canto Bight)</t>
-  </si>
-  <si>
-    <t>Pamich Nerro Goode</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>Gial Ackbar</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>C'ai Threnalli</t>
-  </si>
-  <si>
-    <t>Corm-Kairuku</t>
-  </si>
-  <si>
-    <t>Dhuz</t>
-  </si>
-  <si>
-    <t>Thamm</t>
-  </si>
-  <si>
-    <t>Unidentified male Resistance soldier (Crait)</t>
-  </si>
-  <si>
-    <t>Cobel Tansirch</t>
-  </si>
-  <si>
-    <t>Terna-Gentu</t>
-  </si>
-  <si>
-    <t>Kaydel Ko Connix</t>
-  </si>
-  <si>
-    <t>Stomeroni Starck</t>
-  </si>
-  <si>
-    <t>Hhex</t>
-  </si>
-  <si>
-    <t>Koo Millham</t>
-  </si>
-  <si>
-    <t>Nien Nunb</t>
-  </si>
-  <si>
-    <t>Centada Ressad</t>
-  </si>
-  <si>
-    <t>Derham Boyce</t>
-  </si>
-  <si>
-    <t>Maz Kanata</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>Derla Pidys</t>
-  </si>
-  <si>
-    <t>Rhomby Grammus</t>
-  </si>
-  <si>
-    <t>Shuma Kalamo</t>
-  </si>
-  <si>
-    <t>Riva Rosetta</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
-  </si>
-  <si>
-    <t>BB-9E</t>
-  </si>
-  <si>
-    <t>Lank Paze</t>
-  </si>
-  <si>
-    <t>Nodin Chavdri</t>
-  </si>
-  <si>
-    <t>Alcida-Auka</t>
-  </si>
-  <si>
-    <t>Loatha Sommover</t>
-  </si>
-  <si>
-    <t>B-U4D</t>
-  </si>
-  <si>
-    <t>Nossit Cicer</t>
-  </si>
-  <si>
-    <t>Neepers Panpick</t>
-  </si>
-  <si>
-    <t>Arashell Sar</t>
-  </si>
-  <si>
-    <t>Grayla Stindy</t>
-  </si>
-  <si>
-    <t>Dynym Quid</t>
-  </si>
-  <si>
-    <t>Unidentified Canto Casino patron</t>
-  </si>
-  <si>
-    <t>Poe Dameron</t>
-  </si>
-  <si>
-    <t>Torreb Savato</t>
-  </si>
-  <si>
-    <t>Larma D'Acy</t>
-  </si>
-  <si>
-    <t>Saile Minnau</t>
-  </si>
-  <si>
-    <t>Guila Angira</t>
-  </si>
-  <si>
-    <t>Caluan Ematt</t>
-  </si>
-  <si>
-    <t>Sommel Atandu</t>
-  </si>
-  <si>
-    <t>Prime Jedi</t>
-  </si>
-  <si>
-    <t>Armitage Hux's mother</t>
-  </si>
-  <si>
-    <t>Unidentified Anodyne pilot</t>
-  </si>
-  <si>
-    <t>Parallela Grammus</t>
-  </si>
-  <si>
-    <t>First Guard</t>
-  </si>
-  <si>
-    <t>Daxo Ecloss</t>
-  </si>
-  <si>
-    <t>Ronith Blario</t>
-  </si>
-  <si>
-    <t>Third Guard</t>
-  </si>
-  <si>
-    <t>Poldin LeHuse</t>
-  </si>
-  <si>
-    <t>Edmo Ectacle</t>
-  </si>
-  <si>
-    <t>Goss Toowers</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Unidentified transport pilot</t>
-  </si>
-  <si>
-    <t>Peera Maso</t>
-  </si>
-  <si>
-    <t>Ubbla Mollbro</t>
-  </si>
-  <si>
-    <t>Sibos Tammis</t>
-  </si>
-  <si>
-    <t>Ted</t>
-  </si>
-  <si>
-    <t>Wodibin</t>
-  </si>
-  <si>
-    <t>Bollie Prindel</t>
-  </si>
-  <si>
-    <t>Dillon</t>
-  </si>
-  <si>
-    <t>Dobbu Scay</t>
-  </si>
-  <si>
-    <t>Sturg Ganna</t>
-  </si>
-  <si>
-    <t>Kedpin Shoklop</t>
-  </si>
-  <si>
-    <t>Dodibin</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>Grebe-Korora</t>
-  </si>
-  <si>
-    <t>Teene</t>
-  </si>
-  <si>
-    <t>Unidentified flight engineer</t>
-  </si>
-  <si>
-    <t>Sosear Latta</t>
-  </si>
-  <si>
-    <t>BB-4</t>
-  </si>
-  <si>
-    <t>Cova Nell</t>
-  </si>
-  <si>
-    <t>Snook Uccorfay</t>
-  </si>
-  <si>
-    <t>Vylla Tendeil</t>
-  </si>
-  <si>
-    <t>BB-8</t>
-  </si>
-  <si>
-    <t>Slowen Lo</t>
-  </si>
-  <si>
-    <t>Phi</t>
-  </si>
-  <si>
-    <t>Temiri Blagg</t>
-  </si>
-  <si>
-    <t>Hal (Imperial officer)</t>
-  </si>
-  <si>
-    <t>Karlus Stee</t>
-  </si>
-  <si>
-    <t>Rose Tico</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>Hesper-Inguza</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Idrosen Gawat</t>
-  </si>
-  <si>
-    <t>Hoth Stuff</t>
-  </si>
-  <si>
-    <t>Kylo Ren</t>
-  </si>
-  <si>
-    <t>Rumitar Shay</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Lusica Stynnix</t>
-  </si>
-  <si>
-    <t>Master Codebreaker</t>
-  </si>
-  <si>
-    <t>Jaycris Tubbs</t>
-  </si>
-  <si>
-    <t>Wilhuff Tarkin</t>
-  </si>
-  <si>
-    <t>Pinrado Noza</t>
-  </si>
-  <si>
-    <t>Guswan Askreeth</t>
-  </si>
-  <si>
-    <t>PZ-4CO</t>
-  </si>
-  <si>
-    <t>Unidentified female Resistance monitor</t>
-  </si>
-  <si>
-    <t>Stella</t>
   </si>
   <si>
     <t>Edrison Peavey</t>
@@ -962,7 +962,7 @@
         <v>0.03614457831325302</v>
       </c>
       <c r="E3">
-        <v>0.001585768435981367</v>
+        <v>0.001585768435981366</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E5">
-        <v>5.049893201596991e-10</v>
+        <v>5.049893201596992e-10</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1170,7 +1170,7 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E11">
-        <v>2.895495405428383e-17</v>
+        <v>2.895495405428382e-17</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1187,25 +1187,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.00831610084128225</v>
+        <v>0.0001354847953683487</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>0.2289156626506024</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="E12">
-        <v>0.188157690882369</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1274,7 +1274,7 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E15">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1343,25 +1343,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0002357753398279137</v>
+        <v>0.0114242609217272</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>0.03012048192771084</v>
+        <v>0.3072289156626506</v>
       </c>
       <c r="E18">
-        <v>2.895495405428383e-17</v>
+        <v>0.2825208246541242</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1378,7 +1378,7 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E19">
-        <v>2.895495405428383e-17</v>
+        <v>2.895495405428382e-17</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E20">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.002295409445472776</v>
+        <v>0.002295409445472777</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -1456,7 +1456,7 @@
         <v>0.1506024096385542</v>
       </c>
       <c r="E22">
-        <v>0.1003053897901616</v>
+        <v>0.1003053897901617</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -1473,7 +1473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0003433372568724112</v>
+        <v>0.0003433372568724113</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1664,7 +1664,7 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E30">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1684,22 +1684,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>0.01204819277108434</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="E31">
-        <v>3.162653114835908e-14</v>
+        <v>9.232709842537591e-12</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1814,22 +1814,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="E36">
-        <v>1.930330270285588e-18</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1846,7 +1846,7 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E37">
-        <v>6.327815659023186e-14</v>
+        <v>6.327815659023185e-14</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -1924,7 +1924,7 @@
         <v>0.04819277108433735</v>
       </c>
       <c r="E40">
-        <v>0.02090415258094643</v>
+        <v>0.02090415258094644</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -2071,7 +2071,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.008411379928685004</v>
+        <v>0.008411379928685006</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -2080,7 +2080,7 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="E46">
-        <v>0.2499147117482904</v>
+        <v>0.2499147117482905</v>
       </c>
       <c r="F46">
         <v>19</v>
@@ -2288,7 +2288,7 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E54">
-        <v>2.895495405428383e-17</v>
+        <v>2.895495405428382e-17</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>0.006024096385542169</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E56">
         <v>1.930330270285588e-18</v>
@@ -2349,7 +2349,7 @@
         <v>61</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2418,7 +2418,7 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E59">
-        <v>2.895495405428383e-17</v>
+        <v>2.895495405428382e-17</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2513,25 +2513,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0001354847953683487</v>
+        <v>0.00831610084128225</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D63">
-        <v>0.05421686746987952</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="E63">
-        <v>3.162653114835908e-14</v>
+        <v>0.188157690882369</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
       </c>
       <c r="H63">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2574,7 +2574,7 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E65">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E71">
-        <v>9.072552270342265e-16</v>
+        <v>9.072552270342261e-16</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2756,7 +2756,7 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E72">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2808,7 +2808,7 @@
         <v>0.08433734939759037</v>
       </c>
       <c r="E74">
-        <v>0.08298353818980062</v>
+        <v>0.08298353818980063</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -2834,7 +2834,7 @@
         <v>0.04819277108433735</v>
       </c>
       <c r="E75">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E80">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.00191455199586319</v>
+        <v>0.001914551995863189</v>
       </c>
       <c r="C83">
         <v>32</v>
@@ -3120,7 +3120,7 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E86">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3218,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0.01204819277108434</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="E90">
         <v>1.930330270285588e-18</v>
@@ -3233,7 +3233,7 @@
         <v>95</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3501,7 +3501,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.001854663834400966</v>
+        <v>0.001854663834400965</v>
       </c>
       <c r="C101">
         <v>11</v>
@@ -3640,7 +3640,7 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E106">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E119">
-        <v>9.232709842537587e-12</v>
+        <v>9.232709842537591e-12</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -4108,7 +4108,7 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E124">
-        <v>5.610805926984106e-10</v>
+        <v>5.610805926984107e-10</v>
       </c>
       <c r="F124">
         <v>4</v>
@@ -4134,7 +4134,7 @@
         <v>0.02409638554216868</v>
       </c>
       <c r="E125">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -4160,7 +4160,7 @@
         <v>0.04819277108433735</v>
       </c>
       <c r="E126">
-        <v>1.597086132785995e-09</v>
+        <v>1.597086132785996e-09</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -4238,7 +4238,7 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E129">
-        <v>9.072552270342265e-16</v>
+        <v>9.072552270342261e-16</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>0.006024096385542169</v>
       </c>
       <c r="E131">
-        <v>2.895495405428383e-17</v>
+        <v>2.895495405428382e-17</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -4472,7 +4472,7 @@
         <v>0.03012048192771084</v>
       </c>
       <c r="E138">
-        <v>9.232709842537587e-12</v>
+        <v>9.232709842537591e-12</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -4593,25 +4593,25 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0114242609217272</v>
+        <v>0.0002357753398279137</v>
       </c>
       <c r="C143">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D143">
-        <v>0.3072289156626506</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="E143">
-        <v>0.2825208246541241</v>
+        <v>2.895495405428382e-17</v>
       </c>
       <c r="F143">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
       </c>
       <c r="H143">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4680,7 +4680,7 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E146">
-        <v>2.895495405428383e-17</v>
+        <v>2.895495405428382e-17</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -4700,22 +4700,22 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>0.02409638554216868</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>3.162653114835908e-14</v>
+        <v>1.930330270285588e-18</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4810,7 +4810,7 @@
         <v>0.01807228915662651</v>
       </c>
       <c r="E151">
-        <v>3.162653114835908e-14</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -4836,7 +4836,7 @@
         <v>0.108433734939759</v>
       </c>
       <c r="E152">
-        <v>0.04636701668729281</v>
+        <v>0.04636701668729282</v>
       </c>
       <c r="F152">
         <v>14</v>
@@ -5012,22 +5012,22 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>0.03012048192771084</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E159">
-        <v>9.232709842537587e-12</v>
+        <v>3.162653114835907e-14</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G159" t="s">
         <v>164</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5122,7 +5122,7 @@
         <v>0.03614457831325302</v>
       </c>
       <c r="E163">
-        <v>2.046150086502724e-16</v>
+        <v>2.046150086502723e-16</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -5200,7 +5200,7 @@
         <v>0.01204819277108434</v>
       </c>
       <c r="E166">
-        <v>6.325113196644788e-14</v>
+        <v>6.325113196644786e-14</v>
       </c>
       <c r="F166">
         <v>2</v>
